--- a/gdp_revisions_analysis/output/tables/variance_bound_test_abs_a.xlsx
+++ b/gdp_revisions_analysis/output/tables/variance_bound_test_abs_a.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb59f80414e38fcc/Documentos/Research Assistant/CIUP/GDP Revisions/GitHub/peru_gdp_revisions/gdp_revisions_analysis/output/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{63BE2DEA-F889-469F-82C5-C93502EDBBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61C12582-F50D-4020-B85C-FEB75330C11E}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{63BE2DEA-F889-469F-82C5-C93502EDBBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F0A56C-2928-4494-AF5E-9F4EEEC9FF31}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36981622-23B4-41A4-AFDA-ACD378130D21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{36981622-23B4-41A4-AFDA-ACD378130D21}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
+    <sheet name="abs_sq" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="79">
   <si>
     <t>PBI</t>
   </si>
@@ -155,6 +156,108 @@
   </si>
   <si>
     <t>Construcción</t>
+  </si>
+  <si>
+    <t>-3.633***</t>
+  </si>
+  <si>
+    <t>-3.368***</t>
+  </si>
+  <si>
+    <t>-3.268***</t>
+  </si>
+  <si>
+    <t>-3.301***</t>
+  </si>
+  <si>
+    <t>0.035*</t>
+  </si>
+  <si>
+    <t>0.035***</t>
+  </si>
+  <si>
+    <t>-2.933***</t>
+  </si>
+  <si>
+    <t>-3.382**</t>
+  </si>
+  <si>
+    <t>0.122*</t>
+  </si>
+  <si>
+    <t>0.122***</t>
+  </si>
+  <si>
+    <t>0.119*</t>
+  </si>
+  <si>
+    <t>0.119***</t>
+  </si>
+  <si>
+    <t>-3.712***</t>
+  </si>
+  <si>
+    <t>-3.672***</t>
+  </si>
+  <si>
+    <t>0.030*</t>
+  </si>
+  <si>
+    <t>0.030***</t>
+  </si>
+  <si>
+    <t>-2.805***</t>
+  </si>
+  <si>
+    <t>-3.065***</t>
+  </si>
+  <si>
+    <t>0.020***</t>
+  </si>
+  <si>
+    <t>0.018**</t>
+  </si>
+  <si>
+    <t>-4.394**</t>
+  </si>
+  <si>
+    <t>-4.394***</t>
+  </si>
+  <si>
+    <t>-4.641***</t>
+  </si>
+  <si>
+    <t>0.053***</t>
+  </si>
+  <si>
+    <t>0.052***</t>
+  </si>
+  <si>
+    <t>-2.954***</t>
+  </si>
+  <si>
+    <t>-3.127***</t>
+  </si>
+  <si>
+    <t>-1.857**</t>
+  </si>
+  <si>
+    <t>-2.062***</t>
+  </si>
+  <si>
+    <t>-3.536***</t>
+  </si>
+  <si>
+    <t>-3.467***</t>
+  </si>
+  <si>
+    <t>0.022*</t>
+  </si>
+  <si>
+    <t>Valor absoluto</t>
+  </si>
+  <si>
+    <t>Cuadrado</t>
   </si>
 </sst>
 </file>
@@ -162,9 +265,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="\(#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0#.##0;\(0#.##0\);\(0.000\)"/>
+    <numFmt numFmtId="164" formatCode="\(#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0#.##0;\(0#.##0\);\(0.000\)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -684,7 +787,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
@@ -696,29 +799,29 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="42">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="42">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1098,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16FE8BE-ECD8-4ED1-B690-56B605B6978A}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView showGridLines="0" topLeftCell="A50" workbookViewId="0">
+      <selection sqref="A1:E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1124,42 +1227,42 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>-0.40300000000000002</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>-0.44800000000000001</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>-0.1</v>
       </c>
     </row>
@@ -1167,121 +1270,121 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>-1.4E-2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>-2E-3</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>-1.4E-2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>-2E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>16</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>16</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>16</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="1">
         <v>13</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="1">
         <v>13</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="1">
         <v>13</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>203</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>203</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>203</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>-0.159</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>-0.34899999999999998</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>-0.377</v>
       </c>
     </row>
@@ -1289,121 +1392,121 @@
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>-0.01</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>-0.01</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>23</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>23</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>23</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="1">
         <v>13</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="1">
         <v>13</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>305</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>305</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>305</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>-1.466</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>-1.6910000000000001</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>-1.002</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <v>-0.39300000000000002</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>-1.181</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="8">
         <v>-0.70799999999999996</v>
       </c>
     </row>
@@ -1411,121 +1514,121 @@
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="10">
+      <c r="B22" s="8">
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <v>-1.2E-2</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>21</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>21</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>21</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="1">
         <v>12</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="1">
         <v>12</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="1">
         <v>12</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>242</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <v>242</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>242</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="10">
+      <c r="B28" s="8">
         <v>-0.248</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8">
         <v>-0.113</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>-0.31900000000000001</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="8">
         <v>-0.17299999999999999</v>
       </c>
     </row>
@@ -1533,121 +1636,121 @@
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="10">
+      <c r="B30" s="8">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="8">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="8">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>20</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>20</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>20</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="1">
         <v>8</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="1">
         <v>8</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="1">
         <v>8</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="5">
         <v>166</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="5">
         <v>166</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="5">
         <v>166</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="10">
+      <c r="B36" s="8">
         <v>-0.39800000000000002</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="8">
         <v>-9.2999999999999999E-2</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="8">
         <v>-0.45800000000000002</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="8">
         <v>-0.16700000000000001</v>
       </c>
     </row>
@@ -1655,121 +1758,121 @@
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="6">
         <v>0.01</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="10">
+      <c r="B38" s="8">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="8">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="8">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="8">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>24</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>24</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>24</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="1">
         <v>12</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="1">
         <v>12</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="1">
         <v>12</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="5">
         <v>277</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="5">
         <v>277</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="5">
         <v>277</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="5">
         <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="10">
+      <c r="B44" s="8">
         <v>-0.754</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="8">
         <v>-0.12</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="8">
         <v>-0.9</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="8">
         <v>-0.38700000000000001</v>
       </c>
     </row>
@@ -1777,121 +1880,121 @@
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="10">
+      <c r="B46" s="8">
         <v>-2.4E-2</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="8">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="8">
         <v>-2.4E-2</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="8">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>10</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>10</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>10</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="1">
         <v>10</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="1">
         <v>10</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="1">
         <v>10</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="5">
         <v>99</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="5">
         <v>99</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="5">
         <v>99</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="5">
         <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="10">
+      <c r="B52" s="8">
         <v>-0.504</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="8">
         <v>-0.184</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="8">
         <v>-0.51200000000000001</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="8">
         <v>-0.39400000000000002</v>
       </c>
     </row>
@@ -1899,121 +2002,121 @@
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="6">
         <v>1E-3</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="6">
         <v>1E-3</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="6">
         <v>1E-3</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="6">
         <v>1E-3</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="10">
+      <c r="B54" s="8">
         <v>-1.6E-2</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="8">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="8">
         <v>-1.6E-2</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="8">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>22</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>22</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>22</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="1">
         <v>10</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="1">
         <v>10</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="1">
         <v>10</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="5">
         <v>218</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="5">
         <v>218</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="5">
         <v>218</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="5">
         <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="6">
         <v>-0.92800000000000005</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="6">
         <v>-1.0309999999999999</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="10">
+      <c r="B60" s="8">
         <v>-0.76200000000000001</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="8">
         <v>-0.38500000000000001</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="8">
         <v>-0.83699999999999997</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="8">
         <v>-0.28599999999999998</v>
       </c>
     </row>
@@ -2021,121 +2124,121 @@
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="10">
+      <c r="B62" s="8">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="8">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="8">
         <v>-2.4E-2</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="8">
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="4">
         <v>14</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>14</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <v>14</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="1">
         <v>12</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="1">
         <v>12</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="1">
         <v>12</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="5">
         <v>161</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="5">
         <v>161</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="5">
         <v>161</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="5">
         <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="10">
+      <c r="B68" s="8">
         <v>-0.247</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="8">
         <v>-0.183</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="8">
         <v>-0.27900000000000003</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="8">
         <v>-0.32700000000000001</v>
       </c>
     </row>
@@ -2143,81 +2246,81 @@
       <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="10">
+      <c r="B70" s="8">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="8">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="8">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="8">
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="4">
         <v>25</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <v>25</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>25</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="1">
         <v>16</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="1">
         <v>16</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="1">
         <v>16</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="5">
         <v>409</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="5">
         <v>409</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="5">
         <v>409</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="5">
         <v>409</v>
       </c>
     </row>
@@ -2235,4 +2338,1984 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75846228-9017-4B8D-813D-20E05652D520}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="7">
+        <v>-0.40300000000000002</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-0.44800000000000001</v>
+      </c>
+      <c r="E5" s="7">
+        <v>-0.1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>-0.80700000000000005</v>
+      </c>
+      <c r="G5" s="7">
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="H5" s="7">
+        <v>-0.89600000000000002</v>
+      </c>
+      <c r="I5" s="7">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="8">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>-2E-3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>-2E-3</v>
+      </c>
+      <c r="F7" s="8">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="8">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="I7" s="8">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4">
+        <v>16</v>
+      </c>
+      <c r="I8" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>203</v>
+      </c>
+      <c r="C10" s="5">
+        <v>203</v>
+      </c>
+      <c r="D10" s="5">
+        <v>203</v>
+      </c>
+      <c r="E10" s="5">
+        <v>203</v>
+      </c>
+      <c r="F10" s="5">
+        <v>203</v>
+      </c>
+      <c r="G10" s="5">
+        <v>203</v>
+      </c>
+      <c r="H10" s="5">
+        <v>203</v>
+      </c>
+      <c r="I10" s="5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="8">
+        <v>-0.29899999999999999</v>
+      </c>
+      <c r="C13" s="8">
+        <v>-0.159</v>
+      </c>
+      <c r="D13" s="8">
+        <v>-0.34899999999999998</v>
+      </c>
+      <c r="E13" s="8">
+        <v>-0.377</v>
+      </c>
+      <c r="F13" s="8">
+        <v>-0.59899999999999998</v>
+      </c>
+      <c r="G13" s="8">
+        <v>-0.31900000000000001</v>
+      </c>
+      <c r="H13" s="8">
+        <v>-0.69699999999999995</v>
+      </c>
+      <c r="I13" s="8">
+        <v>-0.754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="8">
+        <v>-0.01</v>
+      </c>
+      <c r="C15" s="8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="8">
+        <v>-0.01</v>
+      </c>
+      <c r="E15" s="8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F15" s="8">
+        <v>-0.02</v>
+      </c>
+      <c r="G15" s="8">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="H15" s="8">
+        <v>-0.02</v>
+      </c>
+      <c r="I15" s="8">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4">
+        <v>23</v>
+      </c>
+      <c r="F16" s="4">
+        <v>23</v>
+      </c>
+      <c r="G16" s="4">
+        <v>23</v>
+      </c>
+      <c r="H16" s="4">
+        <v>23</v>
+      </c>
+      <c r="I16" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5">
+        <v>305</v>
+      </c>
+      <c r="C18" s="5">
+        <v>305</v>
+      </c>
+      <c r="D18" s="5">
+        <v>305</v>
+      </c>
+      <c r="E18" s="5">
+        <v>305</v>
+      </c>
+      <c r="F18" s="5">
+        <v>305</v>
+      </c>
+      <c r="G18" s="5">
+        <v>305</v>
+      </c>
+      <c r="H18" s="5">
+        <v>305</v>
+      </c>
+      <c r="I18" s="5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6">
+        <v>-1.466</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="6">
+        <v>-1.6910000000000001</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6">
+        <v>-2.9329999999999998</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="6">
+        <v>-3.3820000000000001</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="8">
+        <v>-1.002</v>
+      </c>
+      <c r="C21" s="8">
+        <v>-0.39300000000000002</v>
+      </c>
+      <c r="D21" s="8">
+        <v>-1.181</v>
+      </c>
+      <c r="E21" s="8">
+        <v>-0.70799999999999996</v>
+      </c>
+      <c r="F21" s="8">
+        <v>-2.004</v>
+      </c>
+      <c r="G21" s="8">
+        <v>-0.78500000000000003</v>
+      </c>
+      <c r="H21" s="8">
+        <v>-2.3610000000000002</v>
+      </c>
+      <c r="I21" s="8">
+        <v>-1.417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="8">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="F23" s="8">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="G23" s="8">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="H23" s="8">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="I23" s="8">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4">
+        <v>21</v>
+      </c>
+      <c r="D24" s="4">
+        <v>21</v>
+      </c>
+      <c r="E24" s="4">
+        <v>21</v>
+      </c>
+      <c r="F24" s="4">
+        <v>21</v>
+      </c>
+      <c r="G24" s="4">
+        <v>21</v>
+      </c>
+      <c r="H24" s="4">
+        <v>21</v>
+      </c>
+      <c r="I24" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1">
+        <v>12</v>
+      </c>
+      <c r="I25" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="5">
+        <v>242</v>
+      </c>
+      <c r="C26" s="5">
+        <v>242</v>
+      </c>
+      <c r="D26" s="5">
+        <v>242</v>
+      </c>
+      <c r="E26" s="5">
+        <v>242</v>
+      </c>
+      <c r="F26" s="5">
+        <v>242</v>
+      </c>
+      <c r="G26" s="5">
+        <v>242</v>
+      </c>
+      <c r="H26" s="5">
+        <v>242</v>
+      </c>
+      <c r="I26" s="5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="8">
+        <v>-0.248</v>
+      </c>
+      <c r="C29" s="8">
+        <v>-0.113</v>
+      </c>
+      <c r="D29" s="8">
+        <v>-0.31900000000000001</v>
+      </c>
+      <c r="E29" s="8">
+        <v>-0.17299999999999999</v>
+      </c>
+      <c r="F29" s="8">
+        <v>-0.495</v>
+      </c>
+      <c r="G29" s="8">
+        <v>-0.22600000000000001</v>
+      </c>
+      <c r="H29" s="8">
+        <v>-0.63800000000000001</v>
+      </c>
+      <c r="I29" s="8">
+        <v>-0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="8">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="C31" s="8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="D31" s="8">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E31" s="8">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="F31" s="8">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="G31" s="8">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="H31" s="8">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="I31" s="8">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="4">
+        <v>20</v>
+      </c>
+      <c r="C32" s="4">
+        <v>20</v>
+      </c>
+      <c r="D32" s="4">
+        <v>20</v>
+      </c>
+      <c r="E32" s="4">
+        <v>20</v>
+      </c>
+      <c r="F32" s="4">
+        <v>20</v>
+      </c>
+      <c r="G32" s="4">
+        <v>20</v>
+      </c>
+      <c r="H32" s="4">
+        <v>20</v>
+      </c>
+      <c r="I32" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1">
+        <v>8</v>
+      </c>
+      <c r="G33" s="1">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1">
+        <v>8</v>
+      </c>
+      <c r="I33" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="5">
+        <v>166</v>
+      </c>
+      <c r="C34" s="5">
+        <v>166</v>
+      </c>
+      <c r="D34" s="5">
+        <v>166</v>
+      </c>
+      <c r="E34" s="5">
+        <v>166</v>
+      </c>
+      <c r="F34" s="5">
+        <v>166</v>
+      </c>
+      <c r="G34" s="5">
+        <v>166</v>
+      </c>
+      <c r="H34" s="5">
+        <v>166</v>
+      </c>
+      <c r="I34" s="5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="8">
+        <v>-0.39800000000000002</v>
+      </c>
+      <c r="C37" s="8">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="D37" s="8">
+        <v>-0.45800000000000002</v>
+      </c>
+      <c r="E37" s="8">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="F37" s="8">
+        <v>-0.79600000000000004</v>
+      </c>
+      <c r="G37" s="8">
+        <v>-0.187</v>
+      </c>
+      <c r="H37" s="8">
+        <v>-0.91500000000000004</v>
+      </c>
+      <c r="I37" s="8">
+        <v>-0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="8">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="C39" s="8">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="D39" s="8">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="E39" s="8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F39" s="8">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="G39" s="8">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="H39" s="8">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="I39" s="8">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="4">
+        <v>24</v>
+      </c>
+      <c r="C40" s="4">
+        <v>24</v>
+      </c>
+      <c r="D40" s="4">
+        <v>24</v>
+      </c>
+      <c r="E40" s="4">
+        <v>24</v>
+      </c>
+      <c r="F40" s="4">
+        <v>24</v>
+      </c>
+      <c r="G40" s="4">
+        <v>24</v>
+      </c>
+      <c r="H40" s="4">
+        <v>24</v>
+      </c>
+      <c r="I40" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1">
+        <v>12</v>
+      </c>
+      <c r="G41" s="1">
+        <v>12</v>
+      </c>
+      <c r="H41" s="1">
+        <v>12</v>
+      </c>
+      <c r="I41" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="5">
+        <v>277</v>
+      </c>
+      <c r="C42" s="5">
+        <v>277</v>
+      </c>
+      <c r="D42" s="5">
+        <v>277</v>
+      </c>
+      <c r="E42" s="5">
+        <v>277</v>
+      </c>
+      <c r="F42" s="5">
+        <v>277</v>
+      </c>
+      <c r="G42" s="5">
+        <v>277</v>
+      </c>
+      <c r="H42" s="5">
+        <v>277</v>
+      </c>
+      <c r="I42" s="5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="8">
+        <v>-0.754</v>
+      </c>
+      <c r="C45" s="8">
+        <v>-0.12</v>
+      </c>
+      <c r="D45" s="8">
+        <v>-0.9</v>
+      </c>
+      <c r="E45" s="8">
+        <v>-0.38700000000000001</v>
+      </c>
+      <c r="F45" s="8">
+        <v>-1.5089999999999999</v>
+      </c>
+      <c r="G45" s="8">
+        <v>-0.24</v>
+      </c>
+      <c r="H45" s="8">
+        <v>-1.8</v>
+      </c>
+      <c r="I45" s="8">
+        <v>-0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="6">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="6">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="8">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="C47" s="8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="D47" s="8">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="E47" s="8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F47" s="8">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="G47" s="8">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="H47" s="8">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="I47" s="8">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="4">
+        <v>10</v>
+      </c>
+      <c r="C48" s="4">
+        <v>10</v>
+      </c>
+      <c r="D48" s="4">
+        <v>10</v>
+      </c>
+      <c r="E48" s="4">
+        <v>10</v>
+      </c>
+      <c r="F48" s="4">
+        <v>10</v>
+      </c>
+      <c r="G48" s="4">
+        <v>10</v>
+      </c>
+      <c r="H48" s="4">
+        <v>10</v>
+      </c>
+      <c r="I48" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1">
+        <v>10</v>
+      </c>
+      <c r="D49" s="1">
+        <v>10</v>
+      </c>
+      <c r="E49" s="1">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1">
+        <v>10</v>
+      </c>
+      <c r="G49" s="1">
+        <v>10</v>
+      </c>
+      <c r="H49" s="1">
+        <v>10</v>
+      </c>
+      <c r="I49" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="5">
+        <v>99</v>
+      </c>
+      <c r="C50" s="5">
+        <v>99</v>
+      </c>
+      <c r="D50" s="5">
+        <v>99</v>
+      </c>
+      <c r="E50" s="5">
+        <v>99</v>
+      </c>
+      <c r="F50" s="5">
+        <v>99</v>
+      </c>
+      <c r="G50" s="5">
+        <v>99</v>
+      </c>
+      <c r="H50" s="5">
+        <v>99</v>
+      </c>
+      <c r="I50" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="8">
+        <v>-0.504</v>
+      </c>
+      <c r="C53" s="8">
+        <v>-0.184</v>
+      </c>
+      <c r="D53" s="8">
+        <v>-0.51200000000000001</v>
+      </c>
+      <c r="E53" s="8">
+        <v>-0.39400000000000002</v>
+      </c>
+      <c r="F53" s="8">
+        <v>-1.0089999999999999</v>
+      </c>
+      <c r="G53" s="8">
+        <v>-0.36799999999999999</v>
+      </c>
+      <c r="H53" s="8">
+        <v>-1.024</v>
+      </c>
+      <c r="I53" s="8">
+        <v>-0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F54" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G54" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H54" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="I54" s="6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="8">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="C55" s="8">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D55" s="8">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E55" s="8">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F55" s="8">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="G55" s="8">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="H55" s="8">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="I55" s="8">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="4">
+        <v>22</v>
+      </c>
+      <c r="C56" s="4">
+        <v>22</v>
+      </c>
+      <c r="D56" s="4">
+        <v>22</v>
+      </c>
+      <c r="E56" s="4">
+        <v>22</v>
+      </c>
+      <c r="F56" s="4">
+        <v>22</v>
+      </c>
+      <c r="G56" s="4">
+        <v>22</v>
+      </c>
+      <c r="H56" s="4">
+        <v>22</v>
+      </c>
+      <c r="I56" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1">
+        <v>10</v>
+      </c>
+      <c r="E57" s="1">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1">
+        <v>10</v>
+      </c>
+      <c r="G57" s="1">
+        <v>10</v>
+      </c>
+      <c r="H57" s="1">
+        <v>10</v>
+      </c>
+      <c r="I57" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="5">
+        <v>218</v>
+      </c>
+      <c r="C58" s="5">
+        <v>218</v>
+      </c>
+      <c r="D58" s="5">
+        <v>218</v>
+      </c>
+      <c r="E58" s="5">
+        <v>218</v>
+      </c>
+      <c r="F58" s="5">
+        <v>218</v>
+      </c>
+      <c r="G58" s="5">
+        <v>218</v>
+      </c>
+      <c r="H58" s="5">
+        <v>218</v>
+      </c>
+      <c r="I58" s="5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="6">
+        <v>-0.92800000000000005</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="6">
+        <v>-1.0309999999999999</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="6">
+        <v>-1.857</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" s="6">
+        <v>-2.0619999999999998</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="8">
+        <v>-0.76200000000000001</v>
+      </c>
+      <c r="C61" s="8">
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="D61" s="8">
+        <v>-0.83699999999999997</v>
+      </c>
+      <c r="E61" s="8">
+        <v>-0.28599999999999998</v>
+      </c>
+      <c r="F61" s="8">
+        <v>-1.524</v>
+      </c>
+      <c r="G61" s="8">
+        <v>-0.76900000000000002</v>
+      </c>
+      <c r="H61" s="8">
+        <v>-1.6739999999999999</v>
+      </c>
+      <c r="I61" s="8">
+        <v>-0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C62" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D62" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E62" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F62" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H62" s="6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I62" s="6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="8">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="C63" s="8">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="D63" s="8">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="E63" s="8">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="F63" s="8">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="G63" s="8">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="H63" s="8">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="I63" s="8">
+        <v>-2.3E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="4">
+        <v>14</v>
+      </c>
+      <c r="C64" s="4">
+        <v>14</v>
+      </c>
+      <c r="D64" s="4">
+        <v>14</v>
+      </c>
+      <c r="E64" s="4">
+        <v>14</v>
+      </c>
+      <c r="F64" s="4">
+        <v>14</v>
+      </c>
+      <c r="G64" s="4">
+        <v>14</v>
+      </c>
+      <c r="H64" s="4">
+        <v>14</v>
+      </c>
+      <c r="I64" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1">
+        <v>12</v>
+      </c>
+      <c r="F65" s="1">
+        <v>12</v>
+      </c>
+      <c r="G65" s="1">
+        <v>12</v>
+      </c>
+      <c r="H65" s="1">
+        <v>12</v>
+      </c>
+      <c r="I65" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="5">
+        <v>161</v>
+      </c>
+      <c r="C66" s="5">
+        <v>161</v>
+      </c>
+      <c r="D66" s="5">
+        <v>161</v>
+      </c>
+      <c r="E66" s="5">
+        <v>161</v>
+      </c>
+      <c r="F66" s="5">
+        <v>161</v>
+      </c>
+      <c r="G66" s="5">
+        <v>161</v>
+      </c>
+      <c r="H66" s="5">
+        <v>161</v>
+      </c>
+      <c r="I66" s="5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="8">
+        <v>-0.247</v>
+      </c>
+      <c r="C69" s="8">
+        <v>-0.183</v>
+      </c>
+      <c r="D69" s="8">
+        <v>-0.27900000000000003</v>
+      </c>
+      <c r="E69" s="8">
+        <v>-0.32700000000000001</v>
+      </c>
+      <c r="F69" s="8">
+        <v>-0.49299999999999999</v>
+      </c>
+      <c r="G69" s="8">
+        <v>-0.36699999999999999</v>
+      </c>
+      <c r="H69" s="8">
+        <v>-0.55800000000000005</v>
+      </c>
+      <c r="I69" s="8">
+        <v>-0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" s="6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70" s="6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="8">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="C71" s="8">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="D71" s="8">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E71" s="8">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="F71" s="8">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="G71" s="8">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="H71" s="8">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="I71" s="8">
+        <v>-1.2E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="4">
+        <v>25</v>
+      </c>
+      <c r="C72" s="4">
+        <v>25</v>
+      </c>
+      <c r="D72" s="4">
+        <v>25</v>
+      </c>
+      <c r="E72" s="4">
+        <v>25</v>
+      </c>
+      <c r="F72" s="4">
+        <v>25</v>
+      </c>
+      <c r="G72" s="4">
+        <v>25</v>
+      </c>
+      <c r="H72" s="4">
+        <v>25</v>
+      </c>
+      <c r="I72" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="1">
+        <v>16</v>
+      </c>
+      <c r="C73" s="1">
+        <v>16</v>
+      </c>
+      <c r="D73" s="1">
+        <v>16</v>
+      </c>
+      <c r="E73" s="1">
+        <v>16</v>
+      </c>
+      <c r="F73" s="1">
+        <v>16</v>
+      </c>
+      <c r="G73" s="1">
+        <v>16</v>
+      </c>
+      <c r="H73" s="1">
+        <v>16</v>
+      </c>
+      <c r="I73" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="5">
+        <v>409</v>
+      </c>
+      <c r="C74" s="5">
+        <v>409</v>
+      </c>
+      <c r="D74" s="5">
+        <v>409</v>
+      </c>
+      <c r="E74" s="5">
+        <v>409</v>
+      </c>
+      <c r="F74" s="5">
+        <v>409</v>
+      </c>
+      <c r="G74" s="5">
+        <v>409</v>
+      </c>
+      <c r="H74" s="5">
+        <v>409</v>
+      </c>
+      <c r="I74" s="5">
+        <v>409</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A35:I35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>